--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H2">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I2">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J2">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>901.1373636531832</v>
+        <v>9933.999334461701</v>
       </c>
       <c r="R2">
-        <v>8110.236272878649</v>
+        <v>89405.99401015531</v>
       </c>
       <c r="S2">
-        <v>0.002349568506731228</v>
+        <v>0.01424834222567543</v>
       </c>
       <c r="T2">
-        <v>0.002349568506731229</v>
+        <v>0.01424834222567542</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H3">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I3">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J3">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>1384.420673744489</v>
+        <v>8180.715295267157</v>
       </c>
       <c r="R3">
-        <v>12459.7860637004</v>
+        <v>73626.43765740441</v>
       </c>
       <c r="S3">
-        <v>0.003609650810516794</v>
+        <v>0.0117336056962903</v>
       </c>
       <c r="T3">
-        <v>0.003609650810516795</v>
+        <v>0.0117336056962903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H4">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I4">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J4">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>691.7853314332889</v>
+        <v>4719.713666822758</v>
       </c>
       <c r="R4">
-        <v>6226.0679828996</v>
+        <v>42477.42300140482</v>
       </c>
       <c r="S4">
-        <v>0.001803717272985964</v>
+        <v>0.006769488628693581</v>
       </c>
       <c r="T4">
-        <v>0.001803717272985964</v>
+        <v>0.00676948862869358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H5">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I5">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J5">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>1101.099304817639</v>
+        <v>4770.472627990792</v>
       </c>
       <c r="R5">
-        <v>9909.893743358751</v>
+        <v>42934.25365191713</v>
       </c>
       <c r="S5">
-        <v>0.002870936611589509</v>
+        <v>0.006842292242363353</v>
       </c>
       <c r="T5">
-        <v>0.002870936611589511</v>
+        <v>0.006842292242363352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H6">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I6">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J6">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>553.1061124687666</v>
+        <v>3593.269948740826</v>
       </c>
       <c r="R6">
-        <v>4977.9550122189</v>
+        <v>32339.42953866743</v>
       </c>
       <c r="S6">
-        <v>0.001442133857893513</v>
+        <v>0.005153829612337978</v>
       </c>
       <c r="T6">
-        <v>0.001442133857893514</v>
+        <v>0.005153829612337977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.505683333333334</v>
+        <v>56.17027433333333</v>
       </c>
       <c r="H7">
-        <v>28.51705</v>
+        <v>168.510823</v>
       </c>
       <c r="I7">
-        <v>0.01396919972669617</v>
+        <v>0.05337036047460791</v>
       </c>
       <c r="J7">
-        <v>0.01396919972669618</v>
+        <v>0.0533703604746079</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>726.1021093539446</v>
+        <v>6011.850969072077</v>
       </c>
       <c r="R7">
-        <v>6534.918984185501</v>
+        <v>54106.65872164869</v>
       </c>
       <c r="S7">
-        <v>0.001893192666979163</v>
+        <v>0.008622802069247273</v>
       </c>
       <c r="T7">
-        <v>0.001893192666979164</v>
+        <v>0.008622802069247273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H8">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I8">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J8">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>29437.82153362128</v>
+        <v>54918.11155494208</v>
       </c>
       <c r="R8">
-        <v>264940.3938025915</v>
+        <v>494263.0039944787</v>
       </c>
       <c r="S8">
-        <v>0.07675431201939445</v>
+        <v>0.07876908599219631</v>
       </c>
       <c r="T8">
-        <v>0.07675431201939448</v>
+        <v>0.07876908599219631</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H9">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I9">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J9">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
-        <v>45225.43439540582</v>
+        <v>45225.43439540581</v>
       </c>
       <c r="R9">
-        <v>407028.9095586524</v>
+        <v>407028.9095586523</v>
       </c>
       <c r="S9">
-        <v>0.1179179342069548</v>
+        <v>0.06486687233158467</v>
       </c>
       <c r="T9">
-        <v>0.1179179342069549</v>
+        <v>0.06486687233158467</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H10">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I10">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J10">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>22598.83337180974</v>
+        <v>26091.98500374192</v>
       </c>
       <c r="R10">
-        <v>203389.5003462876</v>
+        <v>234827.8650336773</v>
       </c>
       <c r="S10">
-        <v>0.05892276729489409</v>
+        <v>0.03742375242474798</v>
       </c>
       <c r="T10">
-        <v>0.0589227672948941</v>
+        <v>0.03742375242474798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H11">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I11">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J11">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>35970.05976381991</v>
+        <v>26372.59568207857</v>
       </c>
       <c r="R11">
-        <v>323730.5378743791</v>
+        <v>237353.3611387071</v>
       </c>
       <c r="S11">
-        <v>0.09378605639399273</v>
+        <v>0.03782623251786107</v>
       </c>
       <c r="T11">
-        <v>0.09378605639399275</v>
+        <v>0.03782623251786107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H12">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I12">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J12">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>18068.54280462072</v>
+        <v>19864.66812086441</v>
       </c>
       <c r="R12">
-        <v>162616.8852415865</v>
+        <v>178782.0130877797</v>
       </c>
       <c r="S12">
-        <v>0.04711077450407528</v>
+        <v>0.02849190744392958</v>
       </c>
       <c r="T12">
-        <v>0.04711077450407529</v>
+        <v>0.02849190744392958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>310.5260316666667</v>
       </c>
       <c r="H13">
-        <v>931.5780950000001</v>
+        <v>931.578095</v>
       </c>
       <c r="I13">
-        <v>0.4563375408771294</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="J13">
-        <v>0.4563375408771295</v>
+        <v>0.2950472726633026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>23719.87354257994</v>
+        <v>33235.30544499251</v>
       </c>
       <c r="R13">
-        <v>213478.8618832195</v>
+        <v>299117.7490049326</v>
       </c>
       <c r="S13">
-        <v>0.061845696457818</v>
+        <v>0.047669421952983</v>
       </c>
       <c r="T13">
-        <v>0.06184569645781802</v>
+        <v>0.047669421952983</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H14">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I14">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J14">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>9912.281710945397</v>
+        <v>22748.29986907058</v>
       </c>
       <c r="R14">
-        <v>89210.53539850857</v>
+        <v>204734.6988216352</v>
       </c>
       <c r="S14">
-        <v>0.02584465573979751</v>
+        <v>0.03262790248660397</v>
       </c>
       <c r="T14">
-        <v>0.02584465573979752</v>
+        <v>0.03262790248660397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H15">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I15">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J15">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>15228.27515328021</v>
+        <v>18733.3780096648</v>
       </c>
       <c r="R15">
-        <v>137054.4763795219</v>
+        <v>168600.4020869832</v>
       </c>
       <c r="S15">
-        <v>0.03970524046071547</v>
+        <v>0.0268692972425199</v>
       </c>
       <c r="T15">
-        <v>0.03970524046071549</v>
+        <v>0.02686929724251991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H16">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I16">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J16">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>7609.462624951791</v>
+        <v>10807.87889894223</v>
       </c>
       <c r="R16">
-        <v>68485.16362456612</v>
+        <v>97270.91009048007</v>
       </c>
       <c r="S16">
-        <v>0.01984043105731888</v>
+        <v>0.01550174829905296</v>
       </c>
       <c r="T16">
-        <v>0.01984043105731889</v>
+        <v>0.01550174829905297</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H17">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I17">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J17">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>12111.81218458405</v>
+        <v>10924.11406574834</v>
       </c>
       <c r="R17">
-        <v>109006.3096612565</v>
+        <v>98317.02659173506</v>
       </c>
       <c r="S17">
-        <v>0.03157957223411121</v>
+        <v>0.01566846448047716</v>
       </c>
       <c r="T17">
-        <v>0.03157957223411122</v>
+        <v>0.01566846448047716</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H18">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I18">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J18">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>6084.026502474827</v>
+        <v>8228.386126513215</v>
       </c>
       <c r="R18">
-        <v>54756.23852227345</v>
+        <v>74055.47513861895</v>
       </c>
       <c r="S18">
-        <v>0.0158631054941304</v>
+        <v>0.01180198000304306</v>
       </c>
       <c r="T18">
-        <v>0.01586310549413041</v>
+        <v>0.01180198000304306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>104.560098</v>
+        <v>128.6267696666667</v>
       </c>
       <c r="H19">
-        <v>313.680294</v>
+        <v>385.880309</v>
       </c>
       <c r="I19">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="J19">
-        <v>0.1536576426108162</v>
+        <v>0.1222151243744331</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>7986.93845037146</v>
+        <v>13766.80066186302</v>
       </c>
       <c r="R19">
-        <v>71882.44605334316</v>
+        <v>123901.2059567672</v>
       </c>
       <c r="S19">
-        <v>0.02082463762474267</v>
+        <v>0.01974573186273607</v>
       </c>
       <c r="T19">
-        <v>0.02082463762474268</v>
+        <v>0.01974573186273607</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H20">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I20">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J20">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>13250.59046081728</v>
+        <v>41226.08011549505</v>
       </c>
       <c r="R20">
-        <v>119255.3141473555</v>
+        <v>371034.7210394555</v>
       </c>
       <c r="S20">
-        <v>0.03454875061013628</v>
+        <v>0.0591305956777091</v>
       </c>
       <c r="T20">
-        <v>0.03454875061013629</v>
+        <v>0.0591305956777091</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H21">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I21">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J21">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>20356.93126618272</v>
+        <v>33949.95437484744</v>
       </c>
       <c r="R21">
-        <v>183212.3813956445</v>
+        <v>305549.589373627</v>
       </c>
       <c r="S21">
-        <v>0.05307737369008185</v>
+        <v>0.04869444341523151</v>
       </c>
       <c r="T21">
-        <v>0.05307737369008187</v>
+        <v>0.04869444341523151</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H22">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I22">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J22">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>10172.21622734883</v>
+        <v>19586.80358228306</v>
       </c>
       <c r="R22">
-        <v>91549.94604613951</v>
+        <v>176281.2322405475</v>
       </c>
       <c r="S22">
-        <v>0.02652239254018723</v>
+        <v>0.02809336614099712</v>
       </c>
       <c r="T22">
-        <v>0.02652239254018723</v>
+        <v>0.02809336614099712</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H23">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I23">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J23">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>16190.89001667943</v>
+        <v>19797.45318364082</v>
       </c>
       <c r="R23">
-        <v>145718.0101501149</v>
+        <v>178177.0786527674</v>
       </c>
       <c r="S23">
-        <v>0.04221510150785397</v>
+        <v>0.02839550101224032</v>
       </c>
       <c r="T23">
-        <v>0.04221510150785397</v>
+        <v>0.02839550101224032</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H24">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I24">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J24">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>8133.035953571937</v>
+        <v>14912.06409381315</v>
       </c>
       <c r="R24">
-        <v>73197.32358214744</v>
+        <v>134208.5768443184</v>
       </c>
       <c r="S24">
-        <v>0.02120556300446538</v>
+        <v>0.02138838400791675</v>
       </c>
       <c r="T24">
-        <v>0.02120556300446539</v>
+        <v>0.02138838400791675</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>139.7743806666667</v>
+        <v>233.1065416666667</v>
       </c>
       <c r="H25">
-        <v>419.323142</v>
+        <v>699.319625</v>
       </c>
       <c r="I25">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="J25">
-        <v>0.205407246563855</v>
+        <v>0.2214869039789665</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>10676.82028495667</v>
+        <v>24949.17115945349</v>
       </c>
       <c r="R25">
-        <v>96091.38256461003</v>
+        <v>224542.5404350814</v>
       </c>
       <c r="S25">
-        <v>0.02783806521113028</v>
+        <v>0.0357846137248717</v>
       </c>
       <c r="T25">
-        <v>0.02783806521113028</v>
+        <v>0.0357846137248717</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H26">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I26">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J26">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>3569.668860635694</v>
+        <v>6553.203632417509</v>
       </c>
       <c r="R26">
-        <v>32127.01974572124</v>
+        <v>58978.83269175758</v>
       </c>
       <c r="S26">
-        <v>0.009307328574644154</v>
+        <v>0.009399264574672288</v>
       </c>
       <c r="T26">
-        <v>0.009307328574644155</v>
+        <v>0.009399264574672288</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H27">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I27">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J27">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>5484.095509092624</v>
+        <v>5396.60728612513</v>
       </c>
       <c r="R27">
-        <v>49356.85958183361</v>
+        <v>48569.46557512617</v>
       </c>
       <c r="S27">
-        <v>0.01429888340644733</v>
+        <v>0.007740357622487294</v>
       </c>
       <c r="T27">
-        <v>0.01429888340644733</v>
+        <v>0.007740357622487294</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H28">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I28">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J28">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>2740.364183603376</v>
+        <v>3113.473607562853</v>
       </c>
       <c r="R28">
-        <v>24663.27765243038</v>
+        <v>28021.26246806568</v>
       </c>
       <c r="S28">
-        <v>0.007145052066941873</v>
+        <v>0.004465657383051118</v>
       </c>
       <c r="T28">
-        <v>0.007145052066941873</v>
+        <v>0.004465657383051118</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H29">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I29">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J29">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>4361.776638514651</v>
+        <v>3146.957987569823</v>
       </c>
       <c r="R29">
-        <v>39255.98974663185</v>
+        <v>28322.62188812841</v>
       </c>
       <c r="S29">
-        <v>0.01137262024260514</v>
+        <v>0.004513684052823362</v>
       </c>
       <c r="T29">
-        <v>0.01137262024260514</v>
+        <v>0.004513684052823362</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H30">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I30">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J30">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>2191.015205831484</v>
+        <v>2370.387684510654</v>
       </c>
       <c r="R30">
-        <v>19719.13685248336</v>
+        <v>21333.48916059589</v>
       </c>
       <c r="S30">
-        <v>0.005712714324175066</v>
+        <v>0.003399848721478124</v>
       </c>
       <c r="T30">
-        <v>0.005712714324175067</v>
+        <v>0.003399848721478124</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>37.654794</v>
+        <v>37.054084</v>
       </c>
       <c r="H31">
-        <v>112.964382</v>
+        <v>111.162252</v>
       </c>
       <c r="I31">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="J31">
-        <v>0.05533608890684003</v>
+        <v>0.03520705290489978</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>2876.30298547938</v>
+        <v>3965.863322680671</v>
       </c>
       <c r="R31">
-        <v>25886.72686931443</v>
+        <v>35692.76990412603</v>
       </c>
       <c r="S31">
-        <v>0.007499490292026456</v>
+        <v>0.005688240550387596</v>
       </c>
       <c r="T31">
-        <v>0.007499490292026457</v>
+        <v>0.005688240550387596</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H32">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I32">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J32">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>7437.375402035898</v>
+        <v>50753.56834065743</v>
       </c>
       <c r="R32">
-        <v>66936.37861832308</v>
+        <v>456782.1150659169</v>
       </c>
       <c r="S32">
-        <v>0.01939174172794197</v>
+        <v>0.07279587873367606</v>
       </c>
       <c r="T32">
-        <v>0.01939174172794198</v>
+        <v>0.07279587873367606</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H33">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I33">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J33">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>11426.06741244832</v>
+        <v>41795.90503629744</v>
       </c>
       <c r="R33">
-        <v>102834.6067120349</v>
+        <v>376163.145326677</v>
       </c>
       <c r="S33">
-        <v>0.02979160473298139</v>
+        <v>0.05994789596201102</v>
       </c>
       <c r="T33">
-        <v>0.0297916047329814</v>
+        <v>0.05994789596201102</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H34">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I34">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J34">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>5709.526000157456</v>
+        <v>24113.38093273628</v>
       </c>
       <c r="R34">
-        <v>51385.73400141711</v>
+        <v>217020.4283946266</v>
       </c>
       <c r="S34">
-        <v>0.01488665659578179</v>
+        <v>0.03458583921541208</v>
       </c>
       <c r="T34">
-        <v>0.0148866565957818</v>
+        <v>0.03458583921541208</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H35">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I35">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J35">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>9087.725373688212</v>
+        <v>24372.71237798871</v>
       </c>
       <c r="R35">
-        <v>81789.52836319392</v>
+        <v>219354.4114018984</v>
       </c>
       <c r="S35">
-        <v>0.02369475975258512</v>
+        <v>0.03495779848956033</v>
       </c>
       <c r="T35">
-        <v>0.02369475975258513</v>
+        <v>0.03495779848956033</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H36">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I36">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J36">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>4564.961970852328</v>
+        <v>18358.29314757352</v>
       </c>
       <c r="R36">
-        <v>41084.65773767095</v>
+        <v>165224.6383281616</v>
       </c>
       <c r="S36">
-        <v>0.01190239281352038</v>
+        <v>0.026331312761264</v>
       </c>
       <c r="T36">
-        <v>0.01190239281352038</v>
+        <v>0.026331312761264</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>78.45345033333332</v>
+        <v>286.9782613333333</v>
       </c>
       <c r="H37">
-        <v>235.360351</v>
+        <v>860.9347839999999</v>
       </c>
       <c r="I37">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="J37">
-        <v>0.1152922813146632</v>
+        <v>0.2726732856037899</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>5992.753364018534</v>
+        <v>30715.01001154245</v>
       </c>
       <c r="R37">
-        <v>53934.78027616681</v>
+        <v>276435.0901038821</v>
       </c>
       <c r="S37">
-        <v>0.01562512569185249</v>
+        <v>0.04405456044186642</v>
       </c>
       <c r="T37">
-        <v>0.01562512569185249</v>
+        <v>0.04405456044186642</v>
       </c>
     </row>
   </sheetData>
